--- a/quizsources/testsheet.xlsx
+++ b/quizsources/testsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden.Frobenius\Documents\GitHub\quizbank\quizsources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143DF4E3-B8E7-4945-B954-3E6BBDC989D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FCFD91-974B-4836-AE7F-C0224085FC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97A11575-2E20-4433-8B04-0A070EA7B1C7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97A11575-2E20-4433-8B04-0A070EA7B1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Section</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Unit</t>
   </si>
@@ -56,12 +50,6 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>cool course</t>
-  </si>
-  <si>
-    <t>cool section</t>
-  </si>
-  <si>
     <t>cool unit</t>
   </si>
   <si>
@@ -78,12 +66,6 @@
   </si>
   <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>cooler course</t>
-  </si>
-  <si>
-    <t>cooler section</t>
   </si>
   <si>
     <t>cooler unit</t>
@@ -476,25 +458,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7AEFAC-1CA8-456E-8650-442FDCC593DD}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,89 +486,71 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/quizsources/testsheet.xlsx
+++ b/quizsources/testsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden.Frobenius\Documents\GitHub\quizbank\quizsources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FCFD91-974B-4836-AE7F-C0224085FC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15CE46E-ABF8-49C8-B89B-672ED9816E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97A11575-2E20-4433-8B04-0A070EA7B1C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Unit</t>
   </si>
@@ -80,10 +80,10 @@
     <t>cooler answer</t>
   </si>
   <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>Correct</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -512,19 +512,13 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -538,7 +532,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>

--- a/quizsources/testsheet.xlsx
+++ b/quizsources/testsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden.Frobenius\Documents\GitHub\quizbank\quizsources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15CE46E-ABF8-49C8-B89B-672ED9816E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4429E56F-A32C-4D4C-A900-354430063158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97A11575-2E20-4433-8B04-0A070EA7B1C7}"/>
+    <workbookView xWindow="2430" yWindow="1935" windowWidth="21600" windowHeight="11295" xr2:uid="{97A11575-2E20-4433-8B04-0A070EA7B1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Unit</t>
   </si>
@@ -84,6 +84,42 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>be good boy</t>
+  </si>
+  <si>
+    <t>are you a good boy?</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Maybe so</t>
+  </si>
+  <si>
+    <t>are you sure?</t>
+  </si>
+  <si>
+    <t>amazing unit</t>
+  </si>
+  <si>
+    <t>work hard</t>
+  </si>
+  <si>
+    <t>workin' hard or hardly workin'?</t>
+  </si>
+  <si>
+    <t>workin' hard</t>
+  </si>
+  <si>
+    <t>hardly workin'</t>
   </si>
 </sst>
 </file>
@@ -458,20 +494,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7AEFAC-1CA8-456E-8650-442FDCC593DD}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -547,6 +583,69 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/quizsources/testsheet.xlsx
+++ b/quizsources/testsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden.Frobenius\Documents\GitHub\quizbank\quizsources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4429E56F-A32C-4D4C-A900-354430063158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383D46D7-8DDD-474A-8744-9D0E76231F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="1935" windowWidth="21600" windowHeight="11295" xr2:uid="{97A11575-2E20-4433-8B04-0A070EA7B1C7}"/>
+    <workbookView xWindow="3270" yWindow="1290" windowWidth="21600" windowHeight="11295" xr2:uid="{97A11575-2E20-4433-8B04-0A070EA7B1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Unit</t>
   </si>
@@ -80,9 +80,6 @@
     <t>cooler answer</t>
   </si>
   <si>
-    <t>Correct</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -120,6 +117,12 @@
   </si>
   <si>
     <t>hardly workin'</t>
+  </si>
+  <si>
+    <t>Correct Row</t>
+  </si>
+  <si>
+    <t>fill it in</t>
   </si>
 </sst>
 </file>
@@ -494,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7AEFAC-1CA8-456E-8650-442FDCC593DD}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,13 +508,13 @@
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -548,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -588,22 +591,22 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -611,39 +614,50 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/quizsources/testsheet.xlsx
+++ b/quizsources/testsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden.Frobenius\Documents\GitHub\quizbank\quizsources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383D46D7-8DDD-474A-8744-9D0E76231F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92C6955-E7C9-47F3-B063-83B04A50D5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1290" windowWidth="21600" windowHeight="11295" xr2:uid="{97A11575-2E20-4433-8B04-0A070EA7B1C7}"/>
+    <workbookView xWindow="5055" yWindow="3165" windowWidth="21600" windowHeight="11295" xr2:uid="{97A11575-2E20-4433-8B04-0A070EA7B1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Unit</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Correct Row</t>
-  </si>
-  <si>
-    <t>fill it in</t>
   </si>
 </sst>
 </file>
@@ -497,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7AEFAC-1CA8-456E-8650-442FDCC593DD}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,17 +646,6 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/quizsources/testsheet.xlsx
+++ b/quizsources/testsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden.Frobenius\Documents\GitHub\quizbank\quizsources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92C6955-E7C9-47F3-B063-83B04A50D5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0D7EE4-A760-4877-9B42-F62C26724CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="3165" windowWidth="21600" windowHeight="11295" xr2:uid="{97A11575-2E20-4433-8B04-0A070EA7B1C7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97A11575-2E20-4433-8B04-0A070EA7B1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Unit</t>
   </si>
@@ -120,6 +120,27 @@
   </si>
   <si>
     <t>Correct Row</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Multiple Choice</t>
+  </si>
+  <si>
+    <t>Multiple Answer</t>
+  </si>
+  <si>
+    <t>True False</t>
+  </si>
+  <si>
+    <t>stuff</t>
+  </si>
+  <si>
+    <t>Why?</t>
+  </si>
+  <si>
+    <t>Open Ended</t>
   </si>
 </sst>
 </file>
@@ -494,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7AEFAC-1CA8-456E-8650-442FDCC593DD}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,13 +526,13 @@
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,10 +543,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -536,8 +557,11 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -548,16 +572,19 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -568,10 +595,10 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -580,10 +607,13 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -594,19 +624,22 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -617,16 +650,19 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -637,16 +673,38 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Invalid question type." promptTitle="Question Type" sqref="D2:D1048576" xr:uid="{9C64F037-6946-44A4-BD60-9FBA5D19EB93}">
+      <formula1>"Multiple Choice,Multiple Answer,True False,Open Ended"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/quizsources/testsheet.xlsx
+++ b/quizsources/testsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hayden.Frobenius\Documents\GitHub\quizbank\quizsources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0D7EE4-A760-4877-9B42-F62C26724CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828B974E-11A6-4846-A7FE-65401844F81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97A11575-2E20-4433-8B04-0A070EA7B1C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97A11575-2E20-4433-8B04-0A070EA7B1C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Unit</t>
   </si>
@@ -65,9 +65,6 @@
     <t>cool answer</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>cooler unit</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>are you a good boy?</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -141,6 +135,18 @@
   </si>
   <si>
     <t>Open Ended</t>
+  </si>
+  <si>
+    <t>FG</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -518,7 +524,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,10 +549,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -572,10 +578,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -586,19 +592,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -610,93 +616,96 @@
         <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
+      <c r="H6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
